--- a/data/trans_bre/P1422-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1422-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.082053116493481</v>
+        <v>-1.015326222693922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004466579051358458</v>
+        <v>-0.01527112125670323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.633359376884198</v>
+        <v>-2.419095667054319</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6162563474836399</v>
+        <v>-0.6238721505135605</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1015217223552806</v>
+        <v>-0.1925539859611324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6659646488416807</v>
+        <v>-0.6931247594560009</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8695172193990769</v>
+        <v>0.8733405876279495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.49400939171744</v>
+        <v>1.560066274153106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6485305710350447</v>
+        <v>0.7428991764041556</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.278148788397501</v>
+        <v>1.206377578032724</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.401632491309484</v>
+        <v>5.044047767709086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.501721639134053</v>
+        <v>0.5325556831377367</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.4905104094623781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.03411925219751512</v>
+        <v>-0.03411925219751494</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.5142889617277504</v>
@@ -709,7 +709,7 @@
         <v>-0.8061410144065784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.02617045249552223</v>
+        <v>-0.0261704524955221</v>
       </c>
     </row>
     <row r="8">
@@ -720,20 +720,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.501717506678338</v>
+        <v>-1.375419560460166</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.322037634246382</v>
+        <v>-1.193128530217694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8715445668673166</v>
+        <v>-0.8718126453711835</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9098942364896548</v>
+        <v>-0.8773344360948122</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.5155623297501201</v>
+        <v>-0.4805559355916937</v>
       </c>
     </row>
     <row r="9">
@@ -744,20 +744,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2232371742896823</v>
+        <v>0.2191716651418192</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.06372867722161075</v>
+        <v>0.03312405658853827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8407759331523598</v>
+        <v>0.7532757533553612</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6867907048475942</v>
+        <v>0.8328021633244483</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.9470827863614601</v>
+        <v>0.9461599848856607</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>-0.2819709664026316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.1866594206339271</v>
+        <v>-0.1866594206339272</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.4482172289799947</v>
@@ -787,7 +787,7 @@
         <v>-0.4868196394574946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.2386943989373396</v>
+        <v>-0.2386943989373397</v>
       </c>
     </row>
     <row r="11">
@@ -798,20 +798,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.390149228881947</v>
+        <v>-1.19652000978547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9523058351341435</v>
+        <v>-1.026449734802766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8692314562085603</v>
+        <v>-0.9175802995191834</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.9073221343131204</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-0.8870026812070259</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7269332068472507</v>
+        <v>-0.7425737975846297</v>
       </c>
     </row>
     <row r="12">
@@ -822,20 +824,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2805899530645598</v>
+        <v>0.4219203493756759</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3328676035396596</v>
+        <v>0.3279292043139535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3911989437771639</v>
+        <v>0.3523631445920691</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7822717906364353</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>1.316226765735707</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.077459824365108</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>1.021787255372278</v>
+        <v>0.815704925784953</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +860,7 @@
         <v>-0.3773220694029192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.508557502565445</v>
+        <v>-0.5085575025654447</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.128169704792294</v>
@@ -865,7 +869,7 @@
         <v>-0.4679024596265736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4097645647712878</v>
+        <v>-0.4097645647712877</v>
       </c>
     </row>
     <row r="14">
@@ -876,18 +880,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.668542465417349</v>
+        <v>-1.582795349918796</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.422277698324838</v>
+        <v>-1.372179661945983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.376569867194295</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr"/>
+        <v>-1.340402153314528</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7429340824592975</v>
+        <v>-0.7266933621134432</v>
       </c>
     </row>
     <row r="15">
@@ -898,18 +904,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.085500030108053</v>
+        <v>1.018834679793001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.117543794716679</v>
+        <v>0.8772882166527493</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2222131854938728</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr"/>
+        <v>0.2666225180932676</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>5.436216375229172</v>
+      </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>0.3459419999596661</v>
+        <v>0.507390272786217</v>
       </c>
     </row>
     <row r="16">
@@ -930,7 +938,7 @@
         <v>-0.02695189198894813</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2550328615723472</v>
+        <v>-0.2550328615723469</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.2729735003164297</v>
@@ -939,7 +947,7 @@
         <v>-0.04370219053446087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.197855973865867</v>
+        <v>-0.1978559738658669</v>
       </c>
     </row>
     <row r="17">
@@ -950,22 +958,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7207694838040092</v>
+        <v>-0.8130251198290493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.398884251622287</v>
+        <v>-0.4299468962833043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7157553648867128</v>
+        <v>-0.7302018980969514</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5872556662101036</v>
+        <v>-0.6237599407718627</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5179167339988395</v>
+        <v>-0.5418502801758678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4536129558451308</v>
+        <v>-0.4558751051095965</v>
       </c>
     </row>
     <row r="18">
@@ -976,22 +984,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2104317274317881</v>
+        <v>0.1221011388890611</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3409311705149455</v>
+        <v>0.3734881458014331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1519550989790337</v>
+        <v>0.1533234972465022</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.3315351810052708</v>
+        <v>0.196392205133884</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8888432189390458</v>
+        <v>0.9205923112473056</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1564754558288159</v>
+        <v>0.1447883886187689</v>
       </c>
     </row>
     <row r="19">
